--- a/report/reliability/by-unidade/Faculdade de Economia, Administração e Contabilidade - FEAC.xlsx
+++ b/report/reliability/by-unidade/Faculdade de Economia, Administração e Contabilidade - FEAC.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.8288153266587083</v>
+        <v>0.7970294997862334</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8474652705832014</v>
+        <v>0.8228236232175652</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9194212678702969</v>
+        <v>0.910203274401479</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.3164684863333638</v>
+        <v>0.2632095181314323</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>5.555884052264042</v>
+        <v>4.644093293701103</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.016877993781796746</v>
+        <v>0.01830695946818173</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.9069940476190474</v>
+        <v>2.267857142857143</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.8850010722151183</v>
+        <v>0.7444067726996664</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.2861648517849962</v>
+        <v>0.22872499354397766</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.8090776814179058</v>
+        <v>0.8002708870128096</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.8239018202894901</v>
+        <v>0.8231695942002076</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.9009320891242728</v>
+        <v>0.9109247884394016</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.2984090011579773</v>
+        <v>0.2795015318719065</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>4.67865040765278</v>
+        <v>4.655136035440655</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.018809776639225846</v>
+        <v>0.018559446133957696</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.03403162932001725</v>
+        <v>0.05245717834217409</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.27944457394084576</v>
+        <v>0.2498827076676699</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.8144893914526624</v>
+        <v>0.7742616584526397</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.8323977261453952</v>
+        <v>0.797712558220017</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.9050543626415277</v>
+        <v>0.895281209137781</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.3110577926545042</v>
+        <v>0.247340317463616</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>4.966506163678311</v>
+        <v>3.943460608333984</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.01829871951998803</v>
+        <v>0.02022249348308685</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.035044158267487406</v>
+        <v>0.054109541412950185</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.29378647968947563</v>
+        <v>0.19587718282062494</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.8083934197240022</v>
+        <v>0.7816543471748113</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.8241666284931142</v>
+        <v>0.8068679243933689</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9012146106154082</v>
+        <v>0.8994113116774543</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.2987914855953315</v>
+        <v>0.2582429525624631</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>4.687202556773125</v>
+        <v>4.177803826003441</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.018878220167687403</v>
+        <v>0.019562162234726312</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.03503236584561322</v>
+        <v>0.05493568362077404</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.2788383109377479</v>
+        <v>0.20268642502576667</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.8125400540090848</v>
+        <v>0.7839811932473948</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.8309840070267132</v>
+        <v>0.8044957073864305</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9046012446675912</v>
+        <v>0.8936150011511022</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.30889762271837456</v>
+        <v>0.2553511030080061</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>4.916599857849254</v>
+        <v>4.114977203986939</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.018482898813511436</v>
+        <v>0.019922282640802667</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.03478087841375024</v>
+        <v>0.042306707143277195</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.28277133411269184</v>
+        <v>0.22872499354397766</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.8086337451927205</v>
+        <v>0.7621176448792754</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.8351149629297002</v>
+        <v>0.7999805623265278</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8900508706689859</v>
+        <v>0.8912841042686317</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.3152744949908449</v>
+        <v>0.24997722299829075</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>5.064831701942993</v>
+        <v>3.9995141053864995</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.0192812356535548</v>
+        <v>0.022098330023826735</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.03043624947472615</v>
+        <v>0.04245088005886976</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.28277133411269184</v>
+        <v>0.21849298217268237</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.8112035114837575</v>
+        <v>0.7660178452757128</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.8357245001389784</v>
+        <v>0.8009943906450464</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8903171487844035</v>
+        <v>0.8922885409765731</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.31623230325114227</v>
+        <v>0.2511692984540024</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>5.087335000325717</v>
+        <v>4.024983985332616</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.019033448464338618</v>
+        <v>0.021708004697187505</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.030364330627176896</v>
+        <v>0.04259740437788191</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.2895583694573005</v>
+        <v>0.22208678867590465</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.8305964188691304</v>
+        <v>0.7986949447612169</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8515493209006952</v>
+        <v>0.827885475931281</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9120865263691317</v>
+        <v>0.9116516825516279</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.34274380894742257</v>
+        <v>0.2861428088884809</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>5.736244024394518</v>
+        <v>4.8100849153249685</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.016627575233583086</v>
+        <v>0.018585024021405203</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.029867966690496205</v>
+        <v>0.04878847060425581</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.29922327069948745</v>
+        <v>0.2529673730888975</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.8306417268894851</v>
+        <v>0.7970203658127929</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8476396629229079</v>
+        <v>0.8222285660009149</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9105829067572035</v>
+        <v>0.9016805995276849</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.3358846610923519</v>
+        <v>0.27820420359895626</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>5.563387947179548</v>
+        <v>4.625200728285438</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.016443634587765082</v>
+        <v>0.0177754474173313</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.032796472071918555</v>
+        <v>0.04907211082295371</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.31240769687812286</v>
+        <v>0.2529673730888975</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.8183515766775818</v>
+        <v>0.796350711258998</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.8396530319125833</v>
+        <v>0.8173297060771094</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9179821032954405</v>
+        <v>0.9039350150084635</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.3225130824764025</v>
+        <v>0.2715946619958132</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>5.2364758868083365</v>
+        <v>4.474343849373363</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.018051830694303314</v>
+        <v>0.01755235071075017</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.03746430416259531</v>
+        <v>0.05283302703149098</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.2825610671513923</v>
+        <v>0.2529673730888975</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.8159189319403747</v>
+        <v>0.7804332580270602</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.8356618569966902</v>
+        <v>0.8117732129698233</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9143293664516644</v>
+        <v>0.9068007430673343</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.3161336640646017</v>
+        <v>0.264378643692284</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>5.085014602969315</v>
+        <v>4.312740103456578</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.018108725809776693</v>
+        <v>0.019746497881796467</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.03786864768121757</v>
+        <v>0.056109731438258585</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.28277133411269184</v>
+        <v>0.21849298217268237</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.8148482771065558</v>
+        <v>0.7792737893909216</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.8346459685934005</v>
+        <v>0.8079776708819095</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9025935312292911</v>
+        <v>0.903166875380272</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.31454052692136414</v>
+        <v>0.25961243727424277</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>5.047629994221526</v>
+        <v>4.20772768767437</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.018220806721667503</v>
+        <v>0.019613351039104384</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.033702572224161086</v>
+        <v>0.05664383506450319</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.28277133411269184</v>
+        <v>0.22758675367227404</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.8161925626479223</v>
+        <v>0.778198111211272</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.8363017080570063</v>
+        <v>0.8085386440821419</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9040881964674338</v>
+        <v>0.893097240304905</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.31714339213004755</v>
+        <v>0.2603088032913843</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>5.108799231382571</v>
+        <v>4.222986096625297</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.01815246672294228</v>
+        <v>0.01974898445460417</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.033939995006589944</v>
+        <v>0.05263042170051187</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.28277133411269184</v>
+        <v>0.21849298217268237</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7785523278567704</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.8082093924357135</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8938447727165465</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.25989975060917375</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>4.214019668115442</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.019773902881494904</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.05331063890618927</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.21849298217268237</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>224.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6981545655508303</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.7465398358145666</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.732293933742829</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.6414866160643689</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.6785714285714284</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.0563859679400944</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>224.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.6053804122260521</v>
+        <v>0.29861250944203627</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6516704263818748</v>
+        <v>0.4193404382727895</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.62686581073191</v>
+        <v>0.352318824723805</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.5289165358766232</v>
+        <v>0.2845826950734662</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>4.102678571428571</v>
+        <v>0.9776785714285714</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.1611004384026975</v>
+        <v>0.14805757056778399</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>224.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.703077561607821</v>
+        <v>0.6525869404145072</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.7436710975087012</v>
+        <v>0.708033006091888</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.7286344673405591</v>
+        <v>0.6876647537620052</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.6456324650394452</v>
+        <v>0.5828004197413819</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.700892857142857</v>
+        <v>3.6785714285714284</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0817686510885305</v>
+        <v>1.0563859679400944</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>224.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6271903974307801</v>
+        <v>0.5539023507374997</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6678722940599954</v>
+        <v>0.6101663744801962</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6452200307590836</v>
+        <v>0.5779815722677337</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.5482256068874032</v>
+        <v>0.46217240834243317</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>4.147321428571429</v>
+        <v>4.102678571428571</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.238649620662541</v>
+        <v>1.1611004384026975</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>224.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.7144632073885149</v>
+        <v>0.7080095358652347</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.620044001002664</v>
+        <v>0.6361248306200704</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.6386937920460991</v>
+        <v>0.6590925504228912</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.5896762649119976</v>
+        <v>0.6809705453128381</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>2.3794642857142856</v>
+        <v>0.5669642857142857</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>2.162403512157575</v>
+        <v>0.49660522760236697</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>224.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.7079372609018926</v>
+        <v>0.7579524886566212</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.6128601760475991</v>
+        <v>0.68436303454674</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.6311492524965033</v>
+        <v>0.7113144495932524</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.5757512049172201</v>
+        <v>0.6338009619375228</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>2.450892857142857</v>
+        <v>2.3794642857142856</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>2.236529002606566</v>
+        <v>2.162403512157575</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>224.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.4022090921705095</v>
+        <v>0.7471868440525196</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.4140166035791812</v>
+        <v>0.6736624646001399</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.3639789494740131</v>
+        <v>0.6992631270229258</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.2856552392098353</v>
+        <v>0.613313741452394</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.65625</v>
+        <v>2.450892857142857</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.3732408232878874</v>
+        <v>2.236529002606566</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>224.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.4678356763692414</v>
+        <v>0.2899072977806415</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.4654620959331932</v>
+        <v>0.35972554652235234</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.41782901243047044</v>
+        <v>0.2963674599359032</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.32796182512089966</v>
+        <v>0.261305771799452</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.75</v>
+        <v>0.9017857142857143</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.7099025750444081</v>
+        <v>0.29827069381774485</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>224.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5737612319939208</v>
+        <v>0.40125667784184593</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5657526072303596</v>
+        <v>0.43098580171173245</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.4981123745321477</v>
+        <v>0.39545121823658186</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.45932725604178576</v>
+        <v>0.2724368726406651</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.9642857142857142</v>
+        <v>2.65625</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.5955575739574366</v>
+        <v>1.3732408232878874</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>224.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5827915739029016</v>
+        <v>0.4756058888997441</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.6135999970318089</v>
+        <v>0.4903158230627502</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.5587031058398908</v>
+        <v>0.44840287741774404</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.49462976251430757</v>
+        <v>0.32173839549339533</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.59375</v>
+        <v>2.75</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.2776647173827893</v>
+        <v>1.7099025750444081</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>224.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5964039470978644</v>
+        <v>0.5886431965004926</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6255489630627328</v>
+        <v>0.5550898339887325</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6061565430602434</v>
+        <v>0.4918804815667783</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5064682871959085</v>
+        <v>0.46428444148963266</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.34375</v>
+        <v>1.9642857142857142</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.3267365302228633</v>
+        <v>1.5955575739574366</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>224.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5794851345414155</v>
+        <v>0.5806066282848364</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6060267592815651</v>
+        <v>0.5978733045415578</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5837788246965773</v>
+        <v>0.5473897730379199</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.4948308747090221</v>
+        <v>0.48256131584401657</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.59375</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.2776647173827893</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>224.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.5923121206108289</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.591622430707057</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5727178948875863</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.4919046250661415</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.34375</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.3267365302228633</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>224.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5884671607106295</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5952942593793663</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.574869006111893</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.4959812402361606</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>2.1160714285714284</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.225627217220868</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.022321428571428572</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.04017857142857143</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.30357142857142855</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.4419642857142857</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.19196428571428573</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.022321428571428572</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.004464285714285714</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.044642857142857144</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.24107142857142858</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.15178571428571427</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.017857142857142856</v>
+        <v>0.022321428571428572</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.049107142857142856</v>
+        <v>0.9776785714285714</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.008928571428571428</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.2767857142857143</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.4330357142857143</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.21428571428571427</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.017857142857142856</v>
+        <v>0.022321428571428572</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.013392857142857142</v>
+        <v>0.04017857142857143</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.06696428571428571</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.24107142857142858</v>
+        <v>0.30357142857142855</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.026785714285714284</v>
+        <v>0.4419642857142857</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.6339285714285714</v>
+        <v>0.19196428571428573</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.4330357142857143</v>
+        <v>0.022321428571428572</v>
       </c>
       <c r="C47" t="n" s="110">
         <v>0.004464285714285714</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0</v>
+        <v>0.044642857142857144</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.09375</v>
+        <v>0.24107142857142858</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.25</v>
+        <v>0.15178571428571427</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.21875</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.4330357142857143</v>
       </c>
       <c r="C48" t="n" s="110">
+        <v>0.5669642857142857</v>
+      </c>
+      <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
-      <c r="D48" t="n" s="111">
-        <v>0.004464285714285714</v>
-      </c>
       <c r="E48" t="n" s="112">
-        <v>0.12053571428571429</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.12946428571428573</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.3125</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.09821428571428571</v>
+        <v>0.4330357142857143</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.17857142857142858</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.017857142857142856</v>
+        <v>0.0</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.40625</v>
+        <v>0.09375</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.27232142857142855</v>
+        <v>0.25</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.026785714285714284</v>
+        <v>0.21875</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.09821428571428571</v>
+        <v>0.4330357142857143</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.20535714285714285</v>
+        <v>0.0</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.14285714285714285</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.21875</v>
+        <v>0.12053571428571429</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.07142857142857142</v>
+        <v>0.12946428571428573</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.26339285714285715</v>
+        <v>0.3125</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.32142857142857145</v>
+        <v>0.09821428571428571</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.09821428571428571</v>
+        <v>0.9017857142857143</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.09821428571428571</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.25892857142857145</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.22321428571428573</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.12946428571428573</v>
+        <v>0.09821428571428571</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.08482142857142858</v>
+        <v>0.17857142857142858</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.06696428571428571</v>
+        <v>0.017857142857142856</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.5</v>
+        <v>0.40625</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.21875</v>
+        <v>0.27232142857142855</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.026785714285714284</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.14732142857142858</v>
+        <v>0.09821428571428571</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.05803571428571429</v>
+        <v>0.20535714285714285</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.36160714285714285</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.16964285714285715</v>
+        <v>0.21875</v>
       </c>
       <c r="F53" t="n" s="113">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="G53" t="n" s="114">
         <v>0.26339285714285715</v>
-      </c>
-      <c r="G53" t="n" s="114">
-        <v>0.0</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.15178571428571427</v>
+        <v>0.32142857142857145</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.06696428571428571</v>
+        <v>0.09821428571428571</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.46875</v>
+        <v>0.09821428571428571</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.13839285714285715</v>
+        <v>0.25892857142857145</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.17410714285714285</v>
+        <v>0.22321428571428573</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.12946428571428573</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.08482142857142858</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.06696428571428571</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.5</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.21875</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.14732142857142858</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.05803571428571429</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.36160714285714285</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.16964285714285715</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.26339285714285715</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.15178571428571427</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.06696428571428571</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.46875</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.13839285714285715</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.17410714285714285</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8587579344892539</v>
+        <v>0.8664064024320107</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8605621537102459</v>
+        <v>0.9877427335187583</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8682364479699559</v>
+        <v>0.9819136471359443</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6067502918968972</v>
+        <v>0.9641080743506917</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>6.171654085376394</v>
+        <v>80.58425873585898</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.015674301985498743</v>
+        <v>0.0021197212991553045</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.9073660714285716</v>
+        <v>1.7991071428571428</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.952669946427278</v>
+        <v>1.6157604432876937</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6362458287818882</v>
+        <v>0.963824666977783</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8134299842407169</v>
+        <v>0.9837889877786794</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8129915635620728</v>
+        <v>0.984072863606583</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7661155370574535</v>
+        <v>0.9686451206531229</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5916896506958166</v>
+        <v>0.9686451206531228</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.3473523390049005</v>
+        <v>61.78592556118992</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.021482698898437583</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.014441462620312656</v>
-      </c>
+        <v>0.002146617193452488</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6192720791603049</v>
+        <v>0.9686451206531229</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8280541393200191</v>
+        <v>0.5777568024996744</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8313591404748617</v>
+        <v>0.979516047797599</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7810706272693249</v>
+        <v>0.9598544354211692</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6216783858118423</v>
+        <v>0.9598544354211691</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.929761048513487</v>
+        <v>47.81870403323752</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.019970442462238815</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.008803944929735815</v>
-      </c>
+        <v>0.007330400550287813</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.6532195784034716</v>
+        <v>0.9598544354211691</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8213861807770368</v>
+        <v>0.5920594567358344</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.824625565670149</v>
+        <v>0.9815791431737697</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7704421457574985</v>
+        <v>0.963824666977783</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6104951000169221</v>
+        <v>0.963824666977783</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.702085391301458</v>
+        <v>53.28629131822243</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.020782030808682628</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.008151320301397428</v>
-      </c>
+        <v>0.006987138234635847</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6192720791603049</v>
+        <v>0.963824666977783</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8177711748907683</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8201213457600731</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.778881511515109</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6031380310630073</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>4.559303321594647</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.02157606828722882</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.01579886255160134</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6532195784034716</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>224.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9752941977091232</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9864328133738144</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9750882558333944</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9694330591475083</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.5669642857142857</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.49660522760236697</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>224.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8425127117915145</v>
+        <v>0.9917820853985158</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8531322525578006</v>
+        <v>0.9893987409127583</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.8020055455221479</v>
+        <v>0.9824742952549463</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7239461740394785</v>
+        <v>0.9735981075686478</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.6785714285714284</v>
+        <v>2.3794642857142856</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.0563859679400944</v>
+        <v>2.162403512157575</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>224.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8295707274924361</v>
+        <v>0.9918548185534036</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8263463961798058</v>
+        <v>0.9880592072132757</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7634423400989349</v>
+        <v>0.9794029227504703</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.6848939125324272</v>
+        <v>0.9723606493043759</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.102678571428571</v>
+        <v>2.450892857142857</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.1611004384026975</v>
+        <v>2.236529002606566</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>224.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8312862694373262</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8363352765369745</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7815208647718581</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7016791399253077</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.700892857142857</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0817686510885305</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>224.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8543068191150297</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8429065904520203</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7826603667350575</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7134749911127938</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>4.147321428571429</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.238649620662541</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.4330357142857143</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.5669642857142857</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.4330357142857143</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.004464285714285714</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.09375</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.25</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.21875</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.022321428571428572</v>
+        <v>0.4330357142857143</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.04017857142857143</v>
+        <v>0.0</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.0</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.30357142857142855</v>
+        <v>0.12053571428571429</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.4419642857142857</v>
+        <v>0.12946428571428573</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.19196428571428573</v>
+        <v>0.3125</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.022321428571428572</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.004464285714285714</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.044642857142857144</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.24107142857142858</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.15178571428571427</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.017857142857142856</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.049107142857142856</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.008928571428571428</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.2767857142857143</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.4330357142857143</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.017857142857142856</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.013392857142857142</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.06696428571428571</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.24107142857142858</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.026785714285714284</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.6339285714285714</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.8135921323262527</v>
+        <v>0.7067968802339176</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.8251268564272434</v>
+        <v>0.8331430454411606</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.7023114460834942</v>
+        <v>0.7806254262500849</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.702311446083494</v>
+        <v>0.6246789808110557</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>4.718430969841552</v>
+        <v>4.993157448210323</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.023789520124305713</v>
+        <v>0.017824558200076328</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.703125</v>
+        <v>2.1026785714285716</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.4237067335756683</v>
+        <v>1.0145296061382754</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.702311446083494</v>
+        <v>0.6397782552261934</v>
       </c>
     </row>
     <row r="7">
@@ -5950,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.702311446083494</v>
+        <v>0.8135921323262527</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.702311446083494</v>
+        <v>0.8251268564272434</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.49324136729988877</v>
+        <v>0.7023114460834942</v>
       </c>
       <c r="E11" t="n" s="291">
         <v>0.702311446083494</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.702311446083494</v>
-      </c>
+      <c r="F11" t="n" s="292">
+        <v>4.718430969841552</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.023789520124305713</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.702311446083494</v>
       </c>
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.49324136729988877</v>
+        <v>0.3052320998220681</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.702311446083494</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.49324136729988877</v>
-      </c>
+        <v>0.6944720116253702</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.5319472411234792</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.5319472411234794</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>2.273022564380675</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.027059939171154707</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.702311446083494</v>
+        <v>0.5319472411234794</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.4194739751488108</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.7803228920582819</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.6397782552261934</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.6397782552261932</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>3.5521356748073485</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.025653103209341964</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.6397782552261934</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>224.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9040221952748121</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9225810116416591</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7731600136399265</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.7023114460834942</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.65625</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.3732408232878874</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>224.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.939219173583572</v>
+        <v>0.6855125293231014</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9225810116416591</v>
+        <v>0.8360168206555691</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.7731600136399265</v>
+        <v>0.694731179729158</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.7023114460834942</v>
+        <v>0.627990137695824</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.9017857142857143</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.29827069381774485</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>224.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.9084512535911773</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.9015993913918721</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8427104918022562</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.7380894368028974</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.65625</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.3732408232878874</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>224.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9308121974335702</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.860089291828303</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.757709315384446</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.7104774115809869</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.75</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.7099025750444081</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.09821428571428571</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.9017857142857143</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.09821428571428571</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.17857142857142858</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.017857142857142856</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.40625</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.27232142857142855</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.026785714285714284</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.09821428571428571</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.20535714285714285</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.14285714285714285</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.21875</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.07142857142857142</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.26339285714285715</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8872865819310303</v>
+        <v>0.6790813898143742</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8888361877800222</v>
+        <v>0.8094998959577103</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.7999146282529033</v>
+        <v>0.7505927590684317</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.799914628252903</v>
+        <v>0.5861692787725724</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>7.995733233951513</v>
+        <v>4.249340965073736</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.014931990275179665</v>
+        <v>0.01766203332587563</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.2299107142857144</v>
+        <v>2.919642857142857</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.210769310740439</v>
+        <v>0.7104396776321914</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.7999146282529032</v>
+        <v>0.5350966430316343</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.799914628252903</v>
+        <v>0.8186464346899698</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.799914628252903</v>
+        <v>0.8208038979423942</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6398634124929805</v>
+        <v>0.696070735401987</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.799914628252903</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.799914628252903</v>
-      </c>
+        <v>0.696070735401987</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>4.580478528927667</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.02402648719981986</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.799914628252903</v>
+        <v>0.6960707354019872</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6398634124929805</v>
+        <v>0.23677023754315463</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.799914628252903</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6398634124929805</v>
-      </c>
+        <v>0.6971504308352623</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.5350966430316346</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.5350966430316344</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>2.3019693663689553</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.021819647243597303</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.799914628252903</v>
+        <v>0.5350966430316343</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.25323068885508415</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.6905342619086354</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.5273404578840957</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.5273404578840957</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>2.2313754865644184</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.023557901916855837</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.5273404578840957</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>224.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9527552646060297</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9486608003530301</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8484627395312901</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.7999146282529029</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.34375</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.3267365302228633</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>224.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9444008678189464</v>
+        <v>0.6223533675354069</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.94866080035303</v>
+        <v>0.8078976220437848</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8484627395312901</v>
+        <v>0.6308703733525004</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.799914628252903</v>
+        <v>0.5769380586152482</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.1160714285714284</v>
+        <v>0.9776785714285714</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.225627217220868</v>
+        <v>0.14805757056778399</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>224.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9114875441199719</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8709543748431412</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.7874187623474556</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7109524168563807</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.6785714285714284</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.0563859679400944</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>224.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9269587867736231</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.873992626789853</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.7934126467778811</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7136262273341513</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>4.102678571428571</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.1611004384026975</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.14732142857142858</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.05803571428571429</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.36160714285714285</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.16964285714285715</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.26339285714285715</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.022321428571428572</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9776785714285714</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.022321428571428572</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.04017857142857143</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.30357142857142855</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.4419642857142857</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.19196428571428573</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.022321428571428572</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.004464285714285714</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.044642857142857144</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.24107142857142858</v>
+      </c>
+      <c r="F27" t="n" s="458">
         <v>0.15178571428571427</v>
       </c>
-      <c r="C24" t="n" s="455">
-        <v>0.06696428571428571</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.46875</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.13839285714285715</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.17410714285714285</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="G27" t="n" s="459">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9837889877786794</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.984072863606583</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9686451206531229</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9686451206531228</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>61.78592556118992</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.002146617193452488</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>2.4151785714285716</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>2.1821620833713933</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9686451206531229</v>
+      <c r="A6" t="n" s="491">
+        <v>0.6814102543853275</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.6924520184779437</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.5295805800349233</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.5295805800349231</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>2.2515251605651754</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.04116207910084616</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>2.279017857142857</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.2587120328901575</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.5295805800349231</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9686451206531228</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9686451206531228</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.938273369765103</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9686451206531228</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9686451206531228</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9686451206531228</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.529580580034923</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.529580580034923</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.28045559075012594</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.529580580034923</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.529580580034923</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.529580580034923</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.938273369765103</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9686451206531228</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.938273369765103</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9686451206531228</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.28045559075012594</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.529580580034923</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.28045559075012594</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.529580580034923</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>224.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9918617986074866</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9921303141858743</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9764523773380415</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9686451206531227</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>2.3794642857142856</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>2.162403512157575</v>
+      <c r="C17" t="n" s="545">
+        <v>0.902582932675219</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8745228927920993</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.6364103121355943</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.5295805800349231</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.9642857142857142</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.5955575739574366</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>224.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9923943428733931</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9921303141858742</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9764523773380414</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9686451206531227</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>2.450892857142857</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>2.236529002606566</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8431797613010972</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8745228927920992</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.636410312135594</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.5295805800349233</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.59375</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.2776647173827893</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.4330357142857143</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.004464285714285714</v>
-      </c>
-      <c r="D23" t="n" s="570">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.32142857142857145</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.09821428571428571</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.09821428571428571</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.25892857142857145</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.22321428571428573</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
-      <c r="E23" t="n" s="571">
-        <v>0.09375</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.25</v>
-      </c>
-      <c r="G23" t="n" s="573">
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.12946428571428573</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.08482142857142858</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.06696428571428571</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.5</v>
+      </c>
+      <c r="F24" t="n" s="573">
         <v>0.21875</v>
       </c>
-      <c r="H23" t="n" s="574">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.4330357142857143</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.0</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.004464285714285714</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.12053571428571429</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.12946428571428573</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.3125</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.6814102543853275</v>
+        <v>0.8872865819310303</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.6924520184779437</v>
+        <v>0.8888361877800222</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.5295805800349233</v>
+        <v>0.7999146282529033</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.5295805800349231</v>
+        <v>0.799914628252903</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>2.2515251605651754</v>
+        <v>7.995733233951513</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.04116207910084616</v>
+        <v>0.014931990275179665</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>2.279017857142857</v>
+        <v>2.2299107142857144</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.2587120328901575</v>
+        <v>1.210769310740439</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.5295805800349231</v>
+        <v>0.7999146282529032</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.529580580034923</v>
+        <v>0.799914628252903</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.529580580034923</v>
+        <v>0.799914628252903</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.28045559075012594</v>
+        <v>0.6398634124929805</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.529580580034923</v>
+        <v>0.799914628252903</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.529580580034923</v>
+        <v>0.799914628252903</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.529580580034923</v>
+        <v>0.799914628252903</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.28045559075012594</v>
+        <v>0.6398634124929805</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.529580580034923</v>
+        <v>0.799914628252903</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.28045559075012594</v>
+        <v>0.6398634124929805</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.529580580034923</v>
+        <v>0.799914628252903</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>224.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.902582932675219</v>
+        <v>0.9527552646060297</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8745228927920993</v>
+        <v>0.9486608003530301</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.6364103121355943</v>
+        <v>0.8484627395312901</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.5295805800349231</v>
+        <v>0.7999146282529029</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.9642857142857142</v>
+        <v>2.34375</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.5955575739574366</v>
+        <v>1.3267365302228633</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>224.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8431797613010972</v>
+        <v>0.9444008678189464</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8745228927920992</v>
+        <v>0.94866080035303</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.636410312135594</v>
+        <v>0.8484627395312901</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.5295805800349233</v>
+        <v>0.799914628252903</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.59375</v>
+        <v>2.1160714285714284</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.2776647173827893</v>
+        <v>1.225627217220868</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.32142857142857145</v>
+        <v>0.14732142857142858</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.09821428571428571</v>
+        <v>0.05803571428571429</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.09821428571428571</v>
+        <v>0.36160714285714285</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.25892857142857145</v>
+        <v>0.16964285714285715</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.22321428571428573</v>
+        <v>0.26339285714285715</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.12946428571428573</v>
+        <v>0.15178571428571427</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.08482142857142858</v>
+        <v>0.06696428571428571</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.06696428571428571</v>
+        <v>0.46875</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.5</v>
+        <v>0.13839285714285715</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.21875</v>
+        <v>0.17410714285714285</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.8424375345693458</v>
+        <v>0.8163691747134827</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8601821908199719</v>
+        <v>0.8463780878639057</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.9225993262963474</v>
+        <v>0.9167154090485018</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.38088793778375735</v>
+        <v>0.3552333917738723</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>6.152164705373181</v>
+        <v>5.5094880417456045</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.015538001801930962</v>
+        <v>0.01624005571559582</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.947767857142857</v>
+        <v>2.3174107142857143</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.9600515772966716</v>
+        <v>0.8650723762827937</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.33277176337801756</v>
+        <v>0.2895583694573005</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.8233893740631253</v>
+        <v>0.8029813243588305</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.8369621668203354</v>
+        <v>0.8267847586386698</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.9020115304151021</v>
+        <v>0.8969144686929678</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.3632171152575109</v>
+        <v>0.34655537509772294</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>5.13354569609631</v>
+        <v>4.773164024948486</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.017327873397952647</v>
+        <v>0.018158662184073845</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.028456410376797296</v>
+        <v>0.0340309814275807</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.3058154837888052</v>
+        <v>0.3033288644032175</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.8307500575149538</v>
+        <v>0.7768912044634066</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.8477738699440288</v>
+        <v>0.8216319755507709</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.9075684196524334</v>
+        <v>0.8942070549698508</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.38225737855810427</v>
+        <v>0.338545887063436</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>5.569174422501024</v>
+        <v>4.6063860273602</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.016654587444696698</v>
+        <v>0.020461761645210054</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.027519299097692015</v>
+        <v>0.03504802104829638</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.3402669137568886</v>
+        <v>0.2916767075326543</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.8247572261618381</v>
+        <v>0.7830040500066394</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.8401505243951775</v>
+        <v>0.8230250230978435</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.9043449011603695</v>
+        <v>0.8955084093327234</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.3686817935206308</v>
+        <v>0.34068428100439646</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>5.255885396034607</v>
+        <v>4.650516347024959</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.017266938332005807</v>
+        <v>0.01977248159837148</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.028756562278272425</v>
+        <v>0.034969105896024956</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.31898291364202436</v>
+        <v>0.2919042006928063</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.8290055862093472</v>
+        <v>0.8236374176233108</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.846490261412238</v>
+        <v>0.8499084961759104</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.9063094545025169</v>
+        <v>0.9193409493178593</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.37991950735032304</v>
+        <v>0.3861935412222846</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>5.514244693526707</v>
+        <v>5.662602309402011</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.016808318926292944</v>
+        <v>0.016539049593995766</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.027150481831513057</v>
+        <v>0.04721560880691407</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.3402669137568886</v>
+        <v>0.3105239072791984</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.8281517791797522</v>
+        <v>0.7957134368036279</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.8470584022802377</v>
+        <v>0.823198667254375</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.9029375930157686</v>
+        <v>0.9010480672438864</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.3809516141293349</v>
+        <v>0.3409522167137895</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>5.538443529485802</v>
+        <v>4.6560659609888875</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.016762714656984326</v>
+        <v>0.017742338018147195</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.027872227787181895</v>
+        <v>0.05458808140511479</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.33140766634592606</v>
+        <v>0.27573009171500473</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.8300929784434733</v>
+        <v>0.8058945752887221</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.8495803223758565</v>
+        <v>0.834743049379894</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.9048834126611245</v>
+        <v>0.9066198937383789</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.38558443322959096</v>
+        <v>0.3594845220745558</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>5.648066368674972</v>
+        <v>5.051182696084038</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.01670580047976324</v>
+        <v>0.016901430633607748</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.027281354006684154</v>
+        <v>0.05299875313763114</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.339610194875998</v>
+        <v>0.3105239072791984</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.8211296149372843</v>
+        <v>0.8007430896645635</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.8477870650255008</v>
+        <v>0.8372756790700215</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8871097161576315</v>
+        <v>0.9145904231912226</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.38228152354411615</v>
+        <v>0.3637490899117386</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>5.569743893102996</v>
+        <v>5.145362870681805</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.0181377867668461</v>
+        <v>0.01725765302253272</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.022594842787123235</v>
+        <v>0.056011128062087634</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.3402669137568886</v>
+        <v>0.281002820546119</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.8250227447633001</v>
+        <v>0.8028625784869342</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.8487362044162531</v>
+        <v>0.8364216794602061</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.887520822913693</v>
+        <v>0.9120097558767648</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.38402435370823235</v>
+        <v>0.3623027181562252</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>5.610967258496114</v>
+        <v>5.1132795391228445</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.017723122676455108</v>
+        <v>0.016798394324845166</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.02211679226838342</v>
+        <v>0.055130182499509336</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.3402669137568886</v>
+        <v>0.2893308762971485</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.8330839061934677</v>
+        <v>0.7971978981132417</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.853578273535209</v>
+        <v>0.8330012483194424</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.9221660952780909</v>
+        <v>0.8963040442381197</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.39310517098837305</v>
+        <v>0.35659452460208374</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>5.829587549225233</v>
+        <v>4.988068712710161</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.016566166832481743</v>
+        <v>0.017247877447255207</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.03198922271841893</v>
+        <v>0.050835848933078714</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.34828163407640655</v>
+        <v>0.2919042006928063</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.8324586259875979</v>
+        <v>0.7980171883735259</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.8513340963736583</v>
+        <v>0.8334112919069298</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9192525867759271</v>
+        <v>0.8975886003517146</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.38885648755135666</v>
+        <v>0.3572717618924902</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>5.726491923214686</v>
+        <v>5.002807822012266</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.016402154619178516</v>
+        <v>0.01733603807974355</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.031153517551765493</v>
+        <v>0.051398384788350446</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.33140766634592606</v>
+        <v>0.2916767075326543</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>224.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.7058586214270735</v>
+        <v>0.767101432573459</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7610311041501064</v>
+        <v>0.6960726735746505</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.7412399034363358</v>
+        <v>0.7182446120286682</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.6437037607186453</v>
+        <v>0.7418370009080743</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.6785714285714284</v>
+        <v>0.5669642857142857</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.0563859679400944</v>
+        <v>0.49660522760236697</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>224.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.603830922512016</v>
+        <v>0.8143801588787801</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.658022841060029</v>
+        <v>0.7405801091686549</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6260014992264756</v>
+        <v>0.7666479732829736</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.5181377089242831</v>
+        <v>0.6972058914551065</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>4.102678571428571</v>
+        <v>2.3794642857142856</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.1611004384026975</v>
+        <v>2.162403512157575</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>224.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6843789916044999</v>
+        <v>0.8008817457155291</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.7314670688558812</v>
+        <v>0.7286973982894469</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.7067380405623902</v>
+        <v>0.7532880238966034</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.6170309544023194</v>
+        <v>0.6712898148703255</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.700892857142857</v>
+        <v>2.450892857142857</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.0817686510885305</v>
+        <v>2.236529002606566</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>224.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6234291582150455</v>
+        <v>0.3251546914592443</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6706707781520718</v>
+        <v>0.475809765595858</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6416878524930163</v>
+        <v>0.395542277200361</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.5344497913298628</v>
+        <v>0.3097224678886806</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>4.147321428571429</v>
+        <v>0.9776785714285714</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.238649620662541</v>
+        <v>0.14805757056778399</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>224.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.6334317858936895</v>
+        <v>0.6533906093696531</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6650870567007939</v>
+        <v>0.7272085226861505</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.6414339218902296</v>
+        <v>0.6969200611813458</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.539058658791471</v>
+        <v>0.5744493040241289</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.34375</v>
+        <v>3.6785714285714284</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.3267365302228633</v>
+        <v>1.0563859679400944</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>224.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.6111290136928714</v>
+        <v>0.5451135527877479</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.6400233986413465</v>
+        <v>0.6242274852313436</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.6132094260478341</v>
+        <v>0.5800824498740558</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.5212560852412755</v>
+        <v>0.44009818723629124</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>2.1160714285714284</v>
+        <v>4.102678571428571</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.225627217220868</v>
+        <v>1.1611004384026975</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>224.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.7621515147731195</v>
+        <v>0.6281311375018563</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.6578922161294718</v>
+        <v>0.6005299682942856</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.676175210019225</v>
+        <v>0.5249139208208206</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.638368304360505</v>
+        <v>0.49534441237373683</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>2.3794642857142856</v>
+        <v>1.9642857142857142</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>2.162403512157575</v>
+        <v>1.5955575739574366</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>224.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.7532560268171593</v>
+        <v>0.5809268088315993</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.6484634647917211</v>
+        <v>0.6085672232945963</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.6663014072218517</v>
+        <v>0.5430885810723722</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.6204066905239956</v>
+        <v>0.46984715866530385</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>2.450892857142857</v>
+        <v>2.59375</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>2.236529002606566</v>
+        <v>1.2776647173827893</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>224.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.6082698808959139</v>
+        <v>0.6320151164988056</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.5993360341097879</v>
+        <v>0.6402867359377884</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.5225389090608837</v>
+        <v>0.6149876715212934</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.4865793045339641</v>
+        <v>0.5254918262571874</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.9642857142857142</v>
+        <v>2.34375</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.5955575739574366</v>
+        <v>1.3267365302228633</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>224.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.5858321996758756</v>
+        <v>0.6227757584911191</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.6223215093817083</v>
+        <v>0.6365234373404762</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.5562791991486805</v>
+        <v>0.6091440321413504</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.4877069204114667</v>
+        <v>0.5237968719304203</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.59375</v>
+        <v>2.1160714285714284</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.2776647173827893</v>
+        <v>1.225627217220868</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.022321428571428572</v>
+        <v>0.4330357142857143</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.04017857142857143</v>
+        <v>0.5669642857142857</v>
       </c>
       <c r="D39" t="n" s="799">
         <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.30357142857142855</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.4419642857142857</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.19196428571428573</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.022321428571428572</v>
+        <v>0.4330357142857143</v>
       </c>
       <c r="C40" t="n" s="798">
         <v>0.004464285714285714</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.044642857142857144</v>
+        <v>0.0</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.24107142857142858</v>
+        <v>0.09375</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.15178571428571427</v>
+        <v>0.25</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.5357142857142857</v>
+        <v>0.21875</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.017857142857142856</v>
+        <v>0.4330357142857143</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.049107142857142856</v>
+        <v>0.0</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.008928571428571428</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.2767857142857143</v>
+        <v>0.12053571428571429</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.4330357142857143</v>
+        <v>0.12946428571428573</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.21428571428571427</v>
+        <v>0.3125</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.017857142857142856</v>
+        <v>0.022321428571428572</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.013392857142857142</v>
+        <v>0.9776785714285714</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.06696428571428571</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.24107142857142858</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.026785714285714284</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.6339285714285714</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.14732142857142858</v>
+        <v>0.022321428571428572</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.05803571428571429</v>
+        <v>0.04017857142857143</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.36160714285714285</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.16964285714285715</v>
+        <v>0.30357142857142855</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.26339285714285715</v>
+        <v>0.4419642857142857</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.19196428571428573</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
+        <v>0.022321428571428572</v>
+      </c>
+      <c r="C44" t="n" s="798">
+        <v>0.004464285714285714</v>
+      </c>
+      <c r="D44" t="n" s="799">
+        <v>0.044642857142857144</v>
+      </c>
+      <c r="E44" t="n" s="800">
+        <v>0.24107142857142858</v>
+      </c>
+      <c r="F44" t="n" s="801">
         <v>0.15178571428571427</v>
       </c>
-      <c r="C44" t="n" s="798">
-        <v>0.06696428571428571</v>
-      </c>
-      <c r="D44" t="n" s="799">
-        <v>0.46875</v>
-      </c>
-      <c r="E44" t="n" s="800">
-        <v>0.13839285714285715</v>
-      </c>
-      <c r="F44" t="n" s="801">
-        <v>0.17410714285714285</v>
-      </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.4330357142857143</v>
+        <v>0.32142857142857145</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.004464285714285714</v>
+        <v>0.09821428571428571</v>
       </c>
       <c r="D45" t="n" s="799">
+        <v>0.09821428571428571</v>
+      </c>
+      <c r="E45" t="n" s="800">
+        <v>0.25892857142857145</v>
+      </c>
+      <c r="F45" t="n" s="801">
+        <v>0.22321428571428573</v>
+      </c>
+      <c r="G45" t="n" s="802">
         <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="800">
-        <v>0.09375</v>
-      </c>
-      <c r="F45" t="n" s="801">
-        <v>0.25</v>
-      </c>
-      <c r="G45" t="n" s="802">
-        <v>0.21875</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.4330357142857143</v>
+        <v>0.12946428571428573</v>
       </c>
       <c r="C46" t="n" s="798">
+        <v>0.08482142857142858</v>
+      </c>
+      <c r="D46" t="n" s="799">
+        <v>0.06696428571428571</v>
+      </c>
+      <c r="E46" t="n" s="800">
+        <v>0.5</v>
+      </c>
+      <c r="F46" t="n" s="801">
+        <v>0.21875</v>
+      </c>
+      <c r="G46" t="n" s="802">
         <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="799">
-        <v>0.004464285714285714</v>
-      </c>
-      <c r="E46" t="n" s="800">
-        <v>0.12053571428571429</v>
-      </c>
-      <c r="F46" t="n" s="801">
-        <v>0.12946428571428573</v>
-      </c>
-      <c r="G46" t="n" s="802">
-        <v>0.3125</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.32142857142857145</v>
+        <v>0.14732142857142858</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.09821428571428571</v>
+        <v>0.05803571428571429</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.09821428571428571</v>
+        <v>0.36160714285714285</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.25892857142857145</v>
+        <v>0.16964285714285715</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.22321428571428573</v>
+        <v>0.26339285714285715</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.12946428571428573</v>
+        <v>0.15178571428571427</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.08482142857142858</v>
+        <v>0.06696428571428571</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.06696428571428571</v>
+        <v>0.46875</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.5</v>
+        <v>0.13839285714285715</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.21875</v>
+        <v>0.17410714285714285</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
